--- a/Лабы/АЭИС/lab3.xlsx
+++ b/Лабы/АЭИС/lab3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,36 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -40,25 +63,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +459,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лабы/АЭИС/lab3.xlsx
+++ b/Лабы/АЭИС/lab3.xlsx
@@ -9,29 +9,32 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Q1</t>
+    <t>Эксперты</t>
   </si>
   <si>
-    <t>Q2</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Q4</t>
+    <t>di</t>
   </si>
   <si>
-    <t>Q6</t>
+    <t>di^2</t>
   </si>
   <si>
-    <t>Q3</t>
+    <t>w</t>
   </si>
   <si>
-    <t>Q5</t>
+    <t>объекты</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -143,22 +146,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,371 +544,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="K1">
+      <c r="D2" s="10">
         <v>3</v>
       </c>
-      <c r="L1">
+      <c r="E2" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <f>SUM(A3:E3)</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="14">
+        <f>12-F3</f>
+        <v>-2</v>
+      </c>
+      <c r="H3" s="14">
+        <f>G3^2</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="17">
+        <f>12*H7/(A7^2*(A8^3-A8)-A9)</f>
+        <v>0.31847133757961782</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="H3">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <f>SUM(A4:E4)</f>
+        <v>11</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G6" si="0">12-F4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <f>G4^2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <f>SUM(A5:E5)</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="15">
+        <f>G5^2</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <f>SUM(A6:E6)</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <f>G6^2</f>
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="I6" s="19"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>3</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <f>SUM(H3:H6)</f>
+        <v>25</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>3</v>
-      </c>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10">
-        <v>3</v>
-      </c>
-      <c r="L13" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>SUM(B9:E9)</f>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <f>2^3-2</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f>2^3-2</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <f>2^3-2</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Лабы/АЭИС/lab3.xlsx
+++ b/Лабы/АЭИС/lab3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Эксперты</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -187,26 +190,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,33 +217,39 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -547,7 +554,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,13 +563,13 @@
       <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="25" t="s">
@@ -571,68 +578,73 @@
       <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <f>A8*(A7+1)/2</f>
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="29">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="15">
+        <v>4</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="26"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11">
-        <f>SUM(A3:E3)</f>
-        <v>14</v>
-      </c>
-      <c r="G3" s="14">
-        <f>12-F3</f>
-        <v>-2</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(B3:E3)</f>
+        <v>15</v>
+      </c>
+      <c r="G3" s="11">
+        <f>-$K$1+F3</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
         <f>G3^2</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I3" s="17">
-        <f>12*H7/(A7^2*(A8^3-A8)-A9)</f>
-        <v>0.31847133757961782</v>
+        <f>12*H7/(A7^2*A8*(A8^2-1))</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -640,32 +652,32 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <f>SUM(A4:E4)</f>
-        <v>11</v>
-      </c>
-      <c r="G4" s="15">
-        <f t="shared" ref="G4:G6" si="0">12-F4</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="15">
+      <c r="F4" s="7">
+        <f>SUM(B4:E4)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G6" si="0">-$K$1+F4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
         <f>G4^2</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="1"/>
@@ -674,32 +686,32 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
-        <f>SUM(A5:E5)</f>
-        <v>8</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="7">
+        <f>SUM(B5:E5)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H5" s="15">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="30">
         <f>G5^2</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="1"/>
@@ -708,30 +720,30 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
-        <f>SUM(A6:E6)</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <f>SUM(B6:E6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H6" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H6" s="31">
         <f>G6^2</f>
         <v>4</v>
       </c>
@@ -742,7 +754,7 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
@@ -755,7 +767,7 @@
       </c>
       <c r="H7" s="3">
         <f>SUM(H3:H6)</f>
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -764,7 +776,7 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
@@ -781,23 +793,11 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>SUM(B9:E9)</f>
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
-        <f>2^3-2</f>
-        <v>6</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <f>2^3-2</f>
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <f>2^3-2</f>
-        <v>6</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -944,13 +944,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="I3:I6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лабы/АЭИС/lab3.xlsx
+++ b/Лабы/АЭИС/lab3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Эксперты</t>
   </si>
@@ -39,6 +39,12 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
@@ -208,46 +214,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,31 +560,31 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -592,7 +598,7 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -605,10 +611,10 @@
       <c r="E2" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -638,11 +644,11 @@
         <f>-$K$1+F3</f>
         <v>5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="17">
         <f>G3^2</f>
         <v>25</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="22">
         <f>12*H7/(A7^2*A8*(A8^2-1))</f>
         <v>0.72499999999999998</v>
       </c>
@@ -675,11 +681,11 @@
         <f t="shared" ref="G4:G6" si="0">-$K$1+F4</f>
         <v>2</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="18">
         <f>G4^2</f>
         <v>4</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -709,11 +715,11 @@
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="18">
         <f>G5^2</f>
         <v>25</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -743,11 +749,11 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="19">
         <f>G6^2</f>
         <v>4</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -757,7 +763,9 @@
       <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -779,7 +787,9 @@
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
